--- a/interview.xlsx
+++ b/interview.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayteufel/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayteufel/Documents/cartpilot.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Interview" sheetId="1" r:id="rId1"/>
+    <sheet name="Account Matrix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
-  <si>
-    <t>Survey</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Digital</t>
   </si>
@@ -62,15 +60,9 @@
     <t>Variants?</t>
   </si>
   <si>
-    <t>Variants</t>
-  </si>
-  <si>
     <t>Form</t>
   </si>
   <si>
-    <t>UPCs</t>
-  </si>
-  <si>
     <t>Licenses?</t>
   </si>
   <si>
@@ -83,9 +75,6 @@
     <t>Country of Origin</t>
   </si>
   <si>
-    <t>Locations</t>
-  </si>
-  <si>
     <t>Financing</t>
   </si>
   <si>
@@ -96,6 +85,132 @@
   </si>
   <si>
     <t>Trademark No.</t>
+  </si>
+  <si>
+    <t>NW/GW</t>
+  </si>
+  <si>
+    <t>Carton Size</t>
+  </si>
+  <si>
+    <t>Wants</t>
+  </si>
+  <si>
+    <t>Licensing</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>BJs Wholesale - C96</t>
+  </si>
+  <si>
+    <t>Bon Ton Stores</t>
+  </si>
+  <si>
+    <t>Boscovs - C125</t>
+  </si>
+  <si>
+    <t>Brookstone.com - C83</t>
+  </si>
+  <si>
+    <t>Costco.com - C33</t>
+  </si>
+  <si>
+    <t>eBags</t>
+  </si>
+  <si>
+    <t>Fingerhut.com - C41</t>
+  </si>
+  <si>
+    <t>Groupon - C102</t>
+  </si>
+  <si>
+    <t>HSN.com - C53</t>
+  </si>
+  <si>
+    <t>JC Penney</t>
+  </si>
+  <si>
+    <t>Jet.com</t>
+  </si>
+  <si>
+    <t>Kmart.com - C40</t>
+  </si>
+  <si>
+    <t>Kohls.com - C29</t>
+  </si>
+  <si>
+    <t>Lowes.com - C112</t>
+  </si>
+  <si>
+    <t>Overstock.com - C19</t>
+  </si>
+  <si>
+    <t>QVC</t>
+  </si>
+  <si>
+    <t>Sears.com - C39</t>
+  </si>
+  <si>
+    <t>Sharper Image</t>
+  </si>
+  <si>
+    <t>Target.com - C11</t>
+  </si>
+  <si>
+    <t>Toys R Us.com - C51</t>
+  </si>
+  <si>
+    <t>Walmart.com - C45</t>
+  </si>
+  <si>
+    <t>Wayfair (Formerly CSN Stores) - C57</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>See account matrix</t>
+  </si>
+  <si>
+    <t>MSRP</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Location(s)</t>
+  </si>
+  <si>
+    <t>UPC(s)</t>
+  </si>
+  <si>
+    <t>Variants (SKU(s))</t>
   </si>
 </sst>
 </file>
@@ -419,136 +534,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/interview.xlsx
+++ b/interview.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Digital</t>
   </si>
@@ -211,6 +211,24 @@
   </si>
   <si>
     <t>Variants (SKU(s))</t>
+  </si>
+  <si>
+    <t>Images (1000px min)</t>
+  </si>
+  <si>
+    <t>Image 1</t>
+  </si>
+  <si>
+    <t>Image 2</t>
+  </si>
+  <si>
+    <t>Image 3</t>
+  </si>
+  <si>
+    <t>Image 4</t>
+  </si>
+  <si>
+    <t>Image 5</t>
   </si>
 </sst>
 </file>
@@ -534,17 +552,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -555,185 +573,205 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>17</v>
       </c>
     </row>
